--- a/Back-End Handlers/back-end handlers.xlsx
+++ b/Back-End Handlers/back-end handlers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69b146c70723f936/Faculdade/Mestrado Informática/2º Semestre/Aplicações na Web/WebApplications/Back-End Handlers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{3CED422E-E6CA-4CC7-B6B0-5A13710E00CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{739055D8-CB1A-4C44-B968-2AF12D5BEF0F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{3CED422E-E6CA-4CC7-B6B0-5A13710E00CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E0AD0B-8813-4270-A506-807A4BF004B3}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="5535" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -922,7 +922,7 @@
   </sheetPr>
   <dimension ref="B3:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1632,7 +1632,8 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B52:B56"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="78" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Back-End Handlers/back-end handlers.xlsx
+++ b/Back-End Handlers/back-end handlers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69b146c70723f936/Faculdade/Mestrado Informática/2º Semestre/Aplicações na Web/WebApplications/Back-End Handlers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nélio\WebApplications\Back-End Handlers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{3CED422E-E6CA-4CC7-B6B0-5A13710E00CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E0AD0B-8813-4270-A506-807A4BF004B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF87D403-5C49-4848-8049-A5551FADEC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>Retrieve a user's bidding history</t>
   </si>
   <si>
-    <t>Notifcation Service</t>
-  </si>
-  <si>
     <t>/auctions/{auctionId}/notifications</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Retrieve notifications for a user</t>
   </si>
   <si>
-    <t>Seach Service</t>
-  </si>
-  <si>
     <t>/search/auctions</t>
   </si>
   <si>
@@ -353,10 +347,16 @@
     <t>UserID, Username, first name, last name, phone number, e-mail, birth date, payment information, adress, zip code</t>
   </si>
   <si>
-    <t>Detele a user</t>
-  </si>
-  <si>
     <t>Get a user information</t>
+  </si>
+  <si>
+    <t>Notification Service</t>
+  </si>
+  <si>
+    <t>Search Service</t>
+  </si>
+  <si>
+    <t>Delete a user</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
   <dimension ref="B3:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1025,10 +1025,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
@@ -1090,7 +1090,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
@@ -1142,7 +1142,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>28</v>
@@ -1157,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>30</v>
@@ -1198,7 +1198,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>38</v>
@@ -1254,7 +1254,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>45</v>
@@ -1269,7 +1269,7 @@
         <v>44</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>46</v>
@@ -1339,7 +1339,7 @@
         <v>53</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>55</v>
@@ -1373,17 +1373,17 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -1392,11 +1392,11 @@
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -1405,28 +1405,28 @@
         <v>7</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -1435,13 +1435,13 @@
         <v>19</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -1452,13 +1452,13 @@
         <v>19</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -1467,11 +1467,11 @@
         <v>7</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -1480,11 +1480,11 @@
         <v>7</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -1495,13 +1495,13 @@
         <v>19</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -1510,11 +1510,11 @@
         <v>7</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -1523,11 +1523,11 @@
         <v>7</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -1551,11 +1551,11 @@
         <v>7</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -1566,11 +1566,11 @@
         <v>7</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -1579,11 +1579,11 @@
         <v>7</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -1594,11 +1594,11 @@
         <v>7</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -1607,11 +1607,11 @@
         <v>7</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
